--- a/test_info/data/HU1-002/CP-003/objects.xlsx
+++ b/test_info/data/HU1-002/CP-003/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan_piedrahita\Documents\jp\bvc\tests\A2censoTest\test_info\data\HU1-002\CP-003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DB9E02-184F-4B39-9B8B-2FC5A442E13B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC7C387-F527-4939-BD25-8C2ACA27EBEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{58DB2863-25CE-48F2-AA27-D6192448486C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -107,12 +107,6 @@
   </si>
   <si>
     <t>//*[@id="root"]/div/div/section/section[3]/div[1]/div[2]/div[3]/div[2]/div[7]/button</t>
-  </si>
-  <si>
-    <t>opcion_invierte_2</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div/div/section/section[4]/div[2]/div[2]/div[2]/button</t>
   </si>
 </sst>
 </file>
@@ -500,10 +494,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59763200-F441-4785-BC63-9158AA5B2DAF}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E6"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,21 +615,6 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
